--- a/Yelp/Data Processing/borough_final.xlsx
+++ b/Yelp/Data Processing/borough_final.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexy\github\CASA0003GroupProject_GlobalLondon\Yelp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexy\github\CASA0003GroupProject_GlobalLondon\Yelp\Data Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9348"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9350"/>
   </bookViews>
   <sheets>
     <sheet name="borough_final" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="90">
   <si>
     <t>name</t>
   </si>
@@ -776,48 +776,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -833,7 +833,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1095,19 +1095,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V61"/>
+  <dimension ref="A1:AL61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:AL34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" customWidth="1"/>
+    <col min="5" max="5" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1171,8 +1171,53 @@
       <c r="V1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>32</v>
       </c>
@@ -1239,8 +1284,53 @@
       <c r="V2">
         <v>0.22177688710754842</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y2">
+        <v>22.177688710754843</v>
+      </c>
+      <c r="Z2">
+        <v>11.957247828991315</v>
+      </c>
+      <c r="AA2">
+        <v>5.4108216432865728</v>
+      </c>
+      <c r="AB2">
+        <v>11.556446225784903</v>
+      </c>
+      <c r="AC2">
+        <v>2.7388109552438209</v>
+      </c>
+      <c r="AD2">
+        <v>6.9472277889111558</v>
+      </c>
+      <c r="AE2">
+        <v>7.3480293921175681</v>
+      </c>
+      <c r="AF2">
+        <v>6.2124248496993983</v>
+      </c>
+      <c r="AG2">
+        <v>7.2812291249165</v>
+      </c>
+      <c r="AH2">
+        <v>4.9432197728790914</v>
+      </c>
+      <c r="AI2">
+        <v>4.8096192384769543</v>
+      </c>
+      <c r="AJ2">
+        <v>1.402805611222445</v>
+      </c>
+      <c r="AK2">
+        <v>4.9432197728790914</v>
+      </c>
+      <c r="AL2">
+        <v>2.2712090848363395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>5</v>
       </c>
@@ -1307,8 +1397,53 @@
       <c r="V3">
         <v>0.21685082872928177</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3">
+        <v>21.685082872928177</v>
+      </c>
+      <c r="Z3">
+        <v>9.806629834254144</v>
+      </c>
+      <c r="AA3">
+        <v>9.3922651933701662</v>
+      </c>
+      <c r="AB3">
+        <v>12.154696132596685</v>
+      </c>
+      <c r="AC3">
+        <v>3.7292817679558015</v>
+      </c>
+      <c r="AD3">
+        <v>7.872928176795579</v>
+      </c>
+      <c r="AE3">
+        <v>11.602209944751381</v>
+      </c>
+      <c r="AF3">
+        <v>2.3480662983425415</v>
+      </c>
+      <c r="AG3">
+        <v>4.6961325966850831</v>
+      </c>
+      <c r="AH3">
+        <v>2.9005524861878453</v>
+      </c>
+      <c r="AI3">
+        <v>4.834254143646409</v>
+      </c>
+      <c r="AJ3">
+        <v>1.2430939226519337</v>
+      </c>
+      <c r="AK3">
+        <v>5.9392265193370166</v>
+      </c>
+      <c r="AL3">
+        <v>1.7955801104972375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>18</v>
       </c>
@@ -1375,8 +1510,53 @@
       <c r="V4">
         <v>0.20394736842105263</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4">
+        <v>20.394736842105264</v>
+      </c>
+      <c r="Z4">
+        <v>6.359649122807018</v>
+      </c>
+      <c r="AA4">
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="AB4">
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="AC4">
+        <v>3.7280701754385963</v>
+      </c>
+      <c r="AD4">
+        <v>11.184210526315789</v>
+      </c>
+      <c r="AE4">
+        <v>13.815789473684212</v>
+      </c>
+      <c r="AF4">
+        <v>1.7543859649122806</v>
+      </c>
+      <c r="AG4">
+        <v>5.4824561403508767</v>
+      </c>
+      <c r="AH4">
+        <v>2.8508771929824559</v>
+      </c>
+      <c r="AI4">
+        <v>3.9473684210526314</v>
+      </c>
+      <c r="AJ4">
+        <v>3.070175438596491</v>
+      </c>
+      <c r="AK4">
+        <v>9.2105263157894726</v>
+      </c>
+      <c r="AL4">
+        <v>1.9736842105263157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>11</v>
       </c>
@@ -1443,8 +1623,53 @@
       <c r="V5">
         <v>0.18374558303886926</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y5">
+        <v>12.7208480565371</v>
+      </c>
+      <c r="Z5">
+        <v>8.1272084805653702</v>
+      </c>
+      <c r="AA5">
+        <v>9.1872791519434625</v>
+      </c>
+      <c r="AB5">
+        <v>5.6537102473498235</v>
+      </c>
+      <c r="AC5">
+        <v>1.7667844522968199</v>
+      </c>
+      <c r="AD5">
+        <v>13.074204946996467</v>
+      </c>
+      <c r="AE5">
+        <v>18.374558303886925</v>
+      </c>
+      <c r="AF5">
+        <v>1.4134275618374559</v>
+      </c>
+      <c r="AG5">
+        <v>3.8869257950530036</v>
+      </c>
+      <c r="AH5">
+        <v>5.6537102473498235</v>
+      </c>
+      <c r="AI5">
+        <v>4.2402826855123674</v>
+      </c>
+      <c r="AJ5">
+        <v>3.1802120141342751</v>
+      </c>
+      <c r="AK5">
+        <v>11.307420494699647</v>
+      </c>
+      <c r="AL5">
+        <v>1.4134275618374559</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>12</v>
       </c>
@@ -1511,8 +1736,53 @@
       <c r="V6">
         <v>0.22602739726027396</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y6">
+        <v>22.602739726027394</v>
+      </c>
+      <c r="Z6">
+        <v>8.9041095890410951</v>
+      </c>
+      <c r="AA6">
+        <v>8.2191780821917799</v>
+      </c>
+      <c r="AB6">
+        <v>7.8767123287671232</v>
+      </c>
+      <c r="AC6">
+        <v>4.4520547945205475</v>
+      </c>
+      <c r="AD6">
+        <v>12.328767123287671</v>
+      </c>
+      <c r="AE6">
+        <v>8.9041095890410951</v>
+      </c>
+      <c r="AF6">
+        <v>6.1643835616438354</v>
+      </c>
+      <c r="AG6">
+        <v>1.7123287671232876</v>
+      </c>
+      <c r="AH6">
+        <v>4.10958904109589</v>
+      </c>
+      <c r="AI6">
+        <v>6.8493150684931505</v>
+      </c>
+      <c r="AJ6">
+        <v>1.7123287671232876</v>
+      </c>
+      <c r="AK6">
+        <v>4.4520547945205475</v>
+      </c>
+      <c r="AL6">
+        <v>1.7123287671232876</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>29</v>
       </c>
@@ -1579,8 +1849,53 @@
       <c r="V7">
         <v>0.18867924528301888</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y7">
+        <v>11.590296495956872</v>
+      </c>
+      <c r="Z7">
+        <v>9.433962264150944</v>
+      </c>
+      <c r="AA7">
+        <v>18.867924528301888</v>
+      </c>
+      <c r="AB7">
+        <v>7.2776280323450138</v>
+      </c>
+      <c r="AC7">
+        <v>10.242587601078167</v>
+      </c>
+      <c r="AD7">
+        <v>8.0862533692722369</v>
+      </c>
+      <c r="AE7">
+        <v>12.398921832884097</v>
+      </c>
+      <c r="AF7">
+        <v>1.8867924528301887</v>
+      </c>
+      <c r="AG7">
+        <v>2.4258760107816713</v>
+      </c>
+      <c r="AH7">
+        <v>4.8517520215633425</v>
+      </c>
+      <c r="AI7">
+        <v>3.7735849056603774</v>
+      </c>
+      <c r="AJ7">
+        <v>1.3477088948787064</v>
+      </c>
+      <c r="AK7">
+        <v>5.1212938005390836</v>
+      </c>
+      <c r="AL7">
+        <v>2.6954177897574128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>27</v>
       </c>
@@ -1647,8 +1962,53 @@
       <c r="V8">
         <v>0.18181818181818182</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X8" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y8">
+        <v>18.181818181818183</v>
+      </c>
+      <c r="Z8">
+        <v>11.818181818181818</v>
+      </c>
+      <c r="AA8">
+        <v>11.515151515151516</v>
+      </c>
+      <c r="AB8">
+        <v>5.7575757575757578</v>
+      </c>
+      <c r="AC8">
+        <v>4.8484848484848486</v>
+      </c>
+      <c r="AD8">
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="AE8">
+        <v>9.6969696969696972</v>
+      </c>
+      <c r="AF8">
+        <v>1.8181818181818181</v>
+      </c>
+      <c r="AG8">
+        <v>4.8484848484848486</v>
+      </c>
+      <c r="AH8">
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="AI8">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="AJ8">
+        <v>3.6363636363636362</v>
+      </c>
+      <c r="AK8">
+        <v>7.878787878787878</v>
+      </c>
+      <c r="AL8">
+        <v>1.2121212121212122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>19</v>
       </c>
@@ -1715,8 +2075,53 @@
       <c r="V9">
         <v>0.29567307692307693</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y9">
+        <v>29.567307692307693</v>
+      </c>
+      <c r="Z9">
+        <v>4.3269230769230766</v>
+      </c>
+      <c r="AA9">
+        <v>5.2884615384615383</v>
+      </c>
+      <c r="AB9">
+        <v>9.1346153846153832</v>
+      </c>
+      <c r="AC9">
+        <v>3.6057692307692304</v>
+      </c>
+      <c r="AD9">
+        <v>6.25</v>
+      </c>
+      <c r="AE9">
+        <v>8.1730769230769234</v>
+      </c>
+      <c r="AF9">
+        <v>5.7692307692307692</v>
+      </c>
+      <c r="AG9">
+        <v>7.9326923076923075</v>
+      </c>
+      <c r="AH9">
+        <v>6.25</v>
+      </c>
+      <c r="AI9">
+        <v>5.2884615384615383</v>
+      </c>
+      <c r="AJ9">
+        <v>1.6826923076923077</v>
+      </c>
+      <c r="AK9">
+        <v>3.8461538461538463</v>
+      </c>
+      <c r="AL9">
+        <v>2.8846153846153846</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>21</v>
       </c>
@@ -1783,8 +2188,53 @@
       <c r="V10">
         <v>0.15616438356164383</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y10">
+        <v>15.068493150684931</v>
+      </c>
+      <c r="Z10">
+        <v>9.3150684931506849</v>
+      </c>
+      <c r="AA10">
+        <v>9.5890410958904102</v>
+      </c>
+      <c r="AB10">
+        <v>7.6712328767123292</v>
+      </c>
+      <c r="AC10">
+        <v>4.10958904109589</v>
+      </c>
+      <c r="AD10">
+        <v>6.5753424657534243</v>
+      </c>
+      <c r="AE10">
+        <v>6.5753424657534243</v>
+      </c>
+      <c r="AF10">
+        <v>2.1917808219178081</v>
+      </c>
+      <c r="AG10">
+        <v>3.2876712328767121</v>
+      </c>
+      <c r="AH10">
+        <v>4.3835616438356162</v>
+      </c>
+      <c r="AI10">
+        <v>9.5890410958904102</v>
+      </c>
+      <c r="AJ10">
+        <v>4.9315068493150687</v>
+      </c>
+      <c r="AK10">
+        <v>15.616438356164384</v>
+      </c>
+      <c r="AL10">
+        <v>1.095890410958904</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>6</v>
       </c>
@@ -1851,8 +2301,53 @@
       <c r="V11">
         <v>0.24755700325732899</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y11">
+        <v>24.755700325732899</v>
+      </c>
+      <c r="Z11">
+        <v>5.2117263843648214</v>
+      </c>
+      <c r="AA11">
+        <v>6.5146579804560263</v>
+      </c>
+      <c r="AB11">
+        <v>19.218241042345277</v>
+      </c>
+      <c r="AC11">
+        <v>2.9315960912052117</v>
+      </c>
+      <c r="AD11">
+        <v>7.8175895765472303</v>
+      </c>
+      <c r="AE11">
+        <v>4.8859934853420199</v>
+      </c>
+      <c r="AF11">
+        <v>0.97719869706840379</v>
+      </c>
+      <c r="AG11">
+        <v>5.8631921824104234</v>
+      </c>
+      <c r="AH11">
+        <v>4.8859934853420199</v>
+      </c>
+      <c r="AI11">
+        <v>5.8631921824104234</v>
+      </c>
+      <c r="AJ11">
+        <v>0.32573289902280134</v>
+      </c>
+      <c r="AK11">
+        <v>9.4462540716612384</v>
+      </c>
+      <c r="AL11">
+        <v>1.3029315960912053</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>31</v>
       </c>
@@ -1919,8 +2414,53 @@
       <c r="V12">
         <v>0.20945945945945946</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X12" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y12">
+        <v>20.945945945945947</v>
+      </c>
+      <c r="Z12">
+        <v>12.162162162162163</v>
+      </c>
+      <c r="AA12">
+        <v>16.554054054054053</v>
+      </c>
+      <c r="AB12">
+        <v>5.4054054054054053</v>
+      </c>
+      <c r="AC12">
+        <v>9.4594594594594597</v>
+      </c>
+      <c r="AD12">
+        <v>7.7702702702702702</v>
+      </c>
+      <c r="AE12">
+        <v>3.7162162162162162</v>
+      </c>
+      <c r="AF12">
+        <v>2.3648648648648649</v>
+      </c>
+      <c r="AG12">
+        <v>5.0675675675675675</v>
+      </c>
+      <c r="AH12">
+        <v>4.0540540540540544</v>
+      </c>
+      <c r="AI12">
+        <v>4.7297297297297298</v>
+      </c>
+      <c r="AJ12">
+        <v>1.0135135135135136</v>
+      </c>
+      <c r="AK12">
+        <v>5.4054054054054053</v>
+      </c>
+      <c r="AL12">
+        <v>1.3513513513513513</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>26</v>
       </c>
@@ -1987,8 +2527,53 @@
       <c r="V13">
         <v>0.31666666666666665</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X13" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y13">
+        <v>31.666666666666664</v>
+      </c>
+      <c r="Z13">
+        <v>7.2222222222222214</v>
+      </c>
+      <c r="AA13">
+        <v>12.222222222222221</v>
+      </c>
+      <c r="AB13">
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="AC13">
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="AD13">
+        <v>10</v>
+      </c>
+      <c r="AE13">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="AF13">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AG13">
+        <v>5</v>
+      </c>
+      <c r="AH13">
+        <v>5</v>
+      </c>
+      <c r="AI13">
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="AJ13">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="AK13">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="AL13">
+        <v>2.2222222222222223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>17</v>
       </c>
@@ -2055,8 +2640,53 @@
       <c r="V14">
         <v>0.26573426573426573</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y14">
+        <v>13.286713286713287</v>
+      </c>
+      <c r="Z14">
+        <v>9.79020979020979</v>
+      </c>
+      <c r="AA14">
+        <v>26.573426573426573</v>
+      </c>
+      <c r="AB14">
+        <v>2.7972027972027971</v>
+      </c>
+      <c r="AC14">
+        <v>9.79020979020979</v>
+      </c>
+      <c r="AD14">
+        <v>11.188811188811188</v>
+      </c>
+      <c r="AE14">
+        <v>4.895104895104895</v>
+      </c>
+      <c r="AF14">
+        <v>2.7972027972027971</v>
+      </c>
+      <c r="AG14">
+        <v>4.1958041958041958</v>
+      </c>
+      <c r="AH14">
+        <v>5.5944055944055942</v>
+      </c>
+      <c r="AI14">
+        <v>4.1958041958041958</v>
+      </c>
+      <c r="AJ14">
+        <v>0.69930069930069927</v>
+      </c>
+      <c r="AK14">
+        <v>2.0979020979020979</v>
+      </c>
+      <c r="AL14">
+        <v>2.0979020979020979</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>22</v>
       </c>
@@ -2123,8 +2753,53 @@
       <c r="V15">
         <v>0.16774193548387098</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X15" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y15">
+        <v>12.258064516129032</v>
+      </c>
+      <c r="Z15">
+        <v>16.7741935483871</v>
+      </c>
+      <c r="AA15">
+        <v>16.7741935483871</v>
+      </c>
+      <c r="AB15">
+        <v>1.2903225806451613</v>
+      </c>
+      <c r="AC15">
+        <v>10.32258064516129</v>
+      </c>
+      <c r="AD15">
+        <v>9.67741935483871</v>
+      </c>
+      <c r="AE15">
+        <v>10.967741935483872</v>
+      </c>
+      <c r="AF15">
+        <v>0.64516129032258063</v>
+      </c>
+      <c r="AG15">
+        <v>2.5806451612903225</v>
+      </c>
+      <c r="AH15">
+        <v>3.225806451612903</v>
+      </c>
+      <c r="AI15">
+        <v>4.5161290322580641</v>
+      </c>
+      <c r="AJ15">
+        <v>3.870967741935484</v>
+      </c>
+      <c r="AK15">
+        <v>5.806451612903226</v>
+      </c>
+      <c r="AL15">
+        <v>1.2903225806451613</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2191,8 +2866,53 @@
       <c r="V16">
         <v>0.17592592592592593</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y16">
+        <v>17.592592592592592</v>
+      </c>
+      <c r="Z16">
+        <v>15.277777777777779</v>
+      </c>
+      <c r="AA16">
+        <v>11.111111111111111</v>
+      </c>
+      <c r="AB16">
+        <v>9.2592592592592595</v>
+      </c>
+      <c r="AC16">
+        <v>9.7222222222222232</v>
+      </c>
+      <c r="AD16">
+        <v>6.481481481481481</v>
+      </c>
+      <c r="AE16">
+        <v>13.425925925925927</v>
+      </c>
+      <c r="AF16">
+        <v>4.6296296296296298</v>
+      </c>
+      <c r="AG16">
+        <v>1.8518518518518516</v>
+      </c>
+      <c r="AH16">
+        <v>3.2407407407407405</v>
+      </c>
+      <c r="AI16">
+        <v>2.3148148148148149</v>
+      </c>
+      <c r="AJ16">
+        <v>1.8518518518518516</v>
+      </c>
+      <c r="AK16">
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="AL16">
+        <v>0.46296296296296291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>7</v>
       </c>
@@ -2259,8 +2979,53 @@
       <c r="V17">
         <v>0.16867469879518071</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X17" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y17">
+        <v>16.867469879518072</v>
+      </c>
+      <c r="Z17">
+        <v>16.867469879518072</v>
+      </c>
+      <c r="AA17">
+        <v>12.048192771084338</v>
+      </c>
+      <c r="AB17">
+        <v>1.8072289156626504</v>
+      </c>
+      <c r="AC17">
+        <v>8.4337349397590362</v>
+      </c>
+      <c r="AD17">
+        <v>6.6265060240963862</v>
+      </c>
+      <c r="AE17">
+        <v>9.0361445783132535</v>
+      </c>
+      <c r="AF17">
+        <v>1.2048192771084338</v>
+      </c>
+      <c r="AG17">
+        <v>2.4096385542168677</v>
+      </c>
+      <c r="AH17">
+        <v>4.2168674698795181</v>
+      </c>
+      <c r="AI17">
+        <v>4.2168674698795181</v>
+      </c>
+      <c r="AJ17">
+        <v>1.8072289156626504</v>
+      </c>
+      <c r="AK17">
+        <v>12.650602409638553</v>
+      </c>
+      <c r="AL17">
+        <v>1.8072289156626504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>8</v>
       </c>
@@ -2327,8 +3092,53 @@
       <c r="V18">
         <v>0.21264367816091953</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y18">
+        <v>10.344827586206897</v>
+      </c>
+      <c r="Z18">
+        <v>6.8965517241379306</v>
+      </c>
+      <c r="AA18">
+        <v>21.264367816091951</v>
+      </c>
+      <c r="AB18">
+        <v>5.1724137931034484</v>
+      </c>
+      <c r="AC18">
+        <v>14.942528735632186</v>
+      </c>
+      <c r="AD18">
+        <v>5.7471264367816088</v>
+      </c>
+      <c r="AE18">
+        <v>9.1954022988505741</v>
+      </c>
+      <c r="AF18">
+        <v>8.0459770114942533</v>
+      </c>
+      <c r="AG18">
+        <v>2.2988505747126435</v>
+      </c>
+      <c r="AH18">
+        <v>2.8735632183908044</v>
+      </c>
+      <c r="AI18">
+        <v>6.3218390804597711</v>
+      </c>
+      <c r="AJ18">
+        <v>0.57471264367816088</v>
+      </c>
+      <c r="AK18">
+        <v>2.8735632183908044</v>
+      </c>
+      <c r="AL18">
+        <v>3.4482758620689653</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>24</v>
       </c>
@@ -2395,8 +3205,53 @@
       <c r="V19">
         <v>0.2805755395683453</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X19" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y19">
+        <v>12.23021582733813</v>
+      </c>
+      <c r="Z19">
+        <v>13.669064748201439</v>
+      </c>
+      <c r="AA19">
+        <v>28.057553956834528</v>
+      </c>
+      <c r="AB19">
+        <v>4.3165467625899279</v>
+      </c>
+      <c r="AC19">
+        <v>5.0359712230215825</v>
+      </c>
+      <c r="AD19">
+        <v>6.4748201438848918</v>
+      </c>
+      <c r="AE19">
+        <v>7.9136690647482011</v>
+      </c>
+      <c r="AF19">
+        <v>0.71942446043165476</v>
+      </c>
+      <c r="AG19">
+        <v>0.71942446043165476</v>
+      </c>
+      <c r="AH19">
+        <v>5.0359712230215825</v>
+      </c>
+      <c r="AI19">
+        <v>4.3165467625899279</v>
+      </c>
+      <c r="AJ19">
+        <v>2.1582733812949639</v>
+      </c>
+      <c r="AK19">
+        <v>7.9136690647482011</v>
+      </c>
+      <c r="AL19">
+        <v>1.4388489208633095</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>23</v>
       </c>
@@ -2463,8 +3318,53 @@
       <c r="V20">
         <v>0.17293233082706766</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X20" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y20">
+        <v>17.293233082706767</v>
+      </c>
+      <c r="Z20">
+        <v>17.293233082706767</v>
+      </c>
+      <c r="AA20">
+        <v>11.278195488721805</v>
+      </c>
+      <c r="AB20">
+        <v>9.7744360902255636</v>
+      </c>
+      <c r="AC20">
+        <v>8.2706766917293226</v>
+      </c>
+      <c r="AD20">
+        <v>6.0150375939849621</v>
+      </c>
+      <c r="AE20">
+        <v>5.2631578947368416</v>
+      </c>
+      <c r="AF20">
+        <v>3.007518796992481</v>
+      </c>
+      <c r="AG20">
+        <v>2.2556390977443606</v>
+      </c>
+      <c r="AH20">
+        <v>4.5112781954887211</v>
+      </c>
+      <c r="AI20">
+        <v>6.0150375939849621</v>
+      </c>
+      <c r="AJ20">
+        <v>0.75187969924812026</v>
+      </c>
+      <c r="AK20">
+        <v>7.518796992481203</v>
+      </c>
+      <c r="AL20">
+        <v>0.75187969924812026</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>30</v>
       </c>
@@ -2531,8 +3431,53 @@
       <c r="V21">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X21" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y21">
+        <v>15.789473684210526</v>
+      </c>
+      <c r="Z21">
+        <v>20</v>
+      </c>
+      <c r="AA21">
+        <v>11.578947368421053</v>
+      </c>
+      <c r="AB21">
+        <v>2.1052631578947367</v>
+      </c>
+      <c r="AC21">
+        <v>11.578947368421053</v>
+      </c>
+      <c r="AD21">
+        <v>8.4210526315789469</v>
+      </c>
+      <c r="AE21">
+        <v>10.526315789473683</v>
+      </c>
+      <c r="AF21">
+        <v>1.0526315789473684</v>
+      </c>
+      <c r="AG21">
+        <v>2.1052631578947367</v>
+      </c>
+      <c r="AH21">
+        <v>3.1578947368421053</v>
+      </c>
+      <c r="AI21">
+        <v>4.2105263157894735</v>
+      </c>
+      <c r="AJ21">
+        <v>2.1052631578947367</v>
+      </c>
+      <c r="AK21">
+        <v>6.3157894736842106</v>
+      </c>
+      <c r="AL21">
+        <v>1.0526315789473684</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2599,8 +3544,53 @@
       <c r="V22">
         <v>0.24691358024691357</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y22">
+        <v>10.493827160493826</v>
+      </c>
+      <c r="Z22">
+        <v>9.8765432098765427</v>
+      </c>
+      <c r="AA22">
+        <v>24.691358024691358</v>
+      </c>
+      <c r="AB22">
+        <v>3.7037037037037033</v>
+      </c>
+      <c r="AC22">
+        <v>12.962962962962962</v>
+      </c>
+      <c r="AD22">
+        <v>4.3209876543209873</v>
+      </c>
+      <c r="AE22">
+        <v>6.1728395061728394</v>
+      </c>
+      <c r="AF22">
+        <v>8.6419753086419746</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>1.8518518518518516</v>
+      </c>
+      <c r="AI22">
+        <v>6.7901234567901234</v>
+      </c>
+      <c r="AJ22">
+        <v>2.4691358024691357</v>
+      </c>
+      <c r="AK22">
+        <v>7.4074074074074066</v>
+      </c>
+      <c r="AL22">
+        <v>0.61728395061728392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>28</v>
       </c>
@@ -2667,8 +3657,53 @@
       <c r="V23">
         <v>0.20895522388059701</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X23" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y23">
+        <v>20.8955223880597</v>
+      </c>
+      <c r="Z23">
+        <v>17.910447761194028</v>
+      </c>
+      <c r="AA23">
+        <v>11.940298507462686</v>
+      </c>
+      <c r="AB23">
+        <v>2.9850746268656714</v>
+      </c>
+      <c r="AC23">
+        <v>13.432835820895523</v>
+      </c>
+      <c r="AD23">
+        <v>10.44776119402985</v>
+      </c>
+      <c r="AE23">
+        <v>8.9552238805970141</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>1.4925373134328357</v>
+      </c>
+      <c r="AH23">
+        <v>5.9701492537313428</v>
+      </c>
+      <c r="AI23">
+        <v>4.4776119402985071</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>1.4925373134328357</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>13</v>
       </c>
@@ -2735,8 +3770,53 @@
       <c r="V24">
         <v>0.24157303370786518</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X24" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y24">
+        <v>15.168539325842698</v>
+      </c>
+      <c r="Z24">
+        <v>10.674157303370785</v>
+      </c>
+      <c r="AA24">
+        <v>11.235955056179774</v>
+      </c>
+      <c r="AB24">
+        <v>5.0561797752808983</v>
+      </c>
+      <c r="AC24">
+        <v>3.3707865168539324</v>
+      </c>
+      <c r="AD24">
+        <v>3.9325842696629212</v>
+      </c>
+      <c r="AE24">
+        <v>24.157303370786519</v>
+      </c>
+      <c r="AF24">
+        <v>1.6853932584269662</v>
+      </c>
+      <c r="AG24">
+        <v>3.9325842696629212</v>
+      </c>
+      <c r="AH24">
+        <v>4.4943820224719104</v>
+      </c>
+      <c r="AI24">
+        <v>6.7415730337078648</v>
+      </c>
+      <c r="AJ24">
+        <v>3.3707865168539324</v>
+      </c>
+      <c r="AK24">
+        <v>5.0561797752808983</v>
+      </c>
+      <c r="AL24">
+        <v>1.1235955056179776</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>10</v>
       </c>
@@ -2803,8 +3883,53 @@
       <c r="V25">
         <v>0.16216216216216217</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X25" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y25">
+        <v>11.711711711711711</v>
+      </c>
+      <c r="Z25">
+        <v>16.216216216216218</v>
+      </c>
+      <c r="AA25">
+        <v>12.612612612612612</v>
+      </c>
+      <c r="AB25">
+        <v>7.2072072072072073</v>
+      </c>
+      <c r="AC25">
+        <v>9.0090090090090094</v>
+      </c>
+      <c r="AD25">
+        <v>5.4054054054054053</v>
+      </c>
+      <c r="AE25">
+        <v>6.3063063063063058</v>
+      </c>
+      <c r="AF25">
+        <v>1.8018018018018018</v>
+      </c>
+      <c r="AG25">
+        <v>3.6036036036036037</v>
+      </c>
+      <c r="AH25">
+        <v>7.2072072072072073</v>
+      </c>
+      <c r="AI25">
+        <v>4.5045045045045047</v>
+      </c>
+      <c r="AJ25">
+        <v>2.7027027027027026</v>
+      </c>
+      <c r="AK25">
+        <v>8.1081081081081088</v>
+      </c>
+      <c r="AL25">
+        <v>3.6036036036036037</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>20</v>
       </c>
@@ -2871,8 +3996,53 @@
       <c r="V26">
         <v>0.21590909090909091</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X26" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y26">
+        <v>19.318181818181817</v>
+      </c>
+      <c r="Z26">
+        <v>13.636363636363635</v>
+      </c>
+      <c r="AA26">
+        <v>12.5</v>
+      </c>
+      <c r="AB26">
+        <v>21.59090909090909</v>
+      </c>
+      <c r="AC26">
+        <v>11.363636363636363</v>
+      </c>
+      <c r="AD26">
+        <v>6.8181818181818175</v>
+      </c>
+      <c r="AE26">
+        <v>3.4090909090909087</v>
+      </c>
+      <c r="AF26">
+        <v>2.2727272727272729</v>
+      </c>
+      <c r="AG26">
+        <v>1.1363636363636365</v>
+      </c>
+      <c r="AH26">
+        <v>5.6818181818181817</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>1.1363636363636365</v>
+      </c>
+      <c r="AK26">
+        <v>1.1363636363636365</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2939,8 +4109,53 @@
       <c r="V27">
         <v>0.22950819672131148</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y27">
+        <v>22.950819672131146</v>
+      </c>
+      <c r="Z27">
+        <v>17.21311475409836</v>
+      </c>
+      <c r="AA27">
+        <v>14.754098360655737</v>
+      </c>
+      <c r="AB27">
+        <v>1.639344262295082</v>
+      </c>
+      <c r="AC27">
+        <v>10.655737704918032</v>
+      </c>
+      <c r="AD27">
+        <v>4.0983606557377046</v>
+      </c>
+      <c r="AE27">
+        <v>10.655737704918032</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>3.278688524590164</v>
+      </c>
+      <c r="AH27">
+        <v>4.0983606557377046</v>
+      </c>
+      <c r="AI27">
+        <v>4.918032786885246</v>
+      </c>
+      <c r="AJ27">
+        <v>0.81967213114754101</v>
+      </c>
+      <c r="AK27">
+        <v>3.278688524590164</v>
+      </c>
+      <c r="AL27">
+        <v>1.639344262295082</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>16</v>
       </c>
@@ -3007,8 +4222,53 @@
       <c r="V28">
         <v>0.23021582733812951</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X28" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y28">
+        <v>23.021582733812952</v>
+      </c>
+      <c r="Z28">
+        <v>13.669064748201439</v>
+      </c>
+      <c r="AA28">
+        <v>22.302158273381295</v>
+      </c>
+      <c r="AB28">
+        <v>3.5971223021582732</v>
+      </c>
+      <c r="AC28">
+        <v>8.6330935251798557</v>
+      </c>
+      <c r="AD28">
+        <v>3.5971223021582732</v>
+      </c>
+      <c r="AE28">
+        <v>7.9136690647482011</v>
+      </c>
+      <c r="AF28">
+        <v>2.1582733812949639</v>
+      </c>
+      <c r="AG28">
+        <v>2.877697841726619</v>
+      </c>
+      <c r="AH28">
+        <v>5.0359712230215825</v>
+      </c>
+      <c r="AI28">
+        <v>2.877697841726619</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>2.877697841726619</v>
+      </c>
+      <c r="AL28">
+        <v>1.4388489208633095</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>25</v>
       </c>
@@ -3075,8 +4335,53 @@
       <c r="V29">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X29" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y29">
+        <v>9</v>
+      </c>
+      <c r="Z29">
+        <v>20</v>
+      </c>
+      <c r="AA29">
+        <v>18</v>
+      </c>
+      <c r="AB29">
+        <v>2</v>
+      </c>
+      <c r="AC29">
+        <v>21</v>
+      </c>
+      <c r="AD29">
+        <v>4</v>
+      </c>
+      <c r="AE29">
+        <v>10</v>
+      </c>
+      <c r="AF29">
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="AG29">
+        <v>1</v>
+      </c>
+      <c r="AH29">
+        <v>4</v>
+      </c>
+      <c r="AI29">
+        <v>3</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>14</v>
       </c>
@@ -3143,8 +4448,53 @@
       <c r="V30">
         <v>0.4098360655737705</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X30" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y30">
+        <v>13.114754098360656</v>
+      </c>
+      <c r="Z30">
+        <v>9.8360655737704921</v>
+      </c>
+      <c r="AA30">
+        <v>40.983606557377051</v>
+      </c>
+      <c r="AB30">
+        <v>0.81967213114754101</v>
+      </c>
+      <c r="AC30">
+        <v>8.1967213114754092</v>
+      </c>
+      <c r="AD30">
+        <v>2.459016393442623</v>
+      </c>
+      <c r="AE30">
+        <v>9.0163934426229506</v>
+      </c>
+      <c r="AF30">
+        <v>4.0983606557377046</v>
+      </c>
+      <c r="AG30">
+        <v>2.459016393442623</v>
+      </c>
+      <c r="AH30">
+        <v>2.459016393442623</v>
+      </c>
+      <c r="AI30">
+        <v>2.459016393442623</v>
+      </c>
+      <c r="AJ30">
+        <v>0.81967213114754101</v>
+      </c>
+      <c r="AK30">
+        <v>1.639344262295082</v>
+      </c>
+      <c r="AL30">
+        <v>1.639344262295082</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>15</v>
       </c>
@@ -3211,8 +4561,53 @@
       <c r="V31">
         <v>0.23728813559322035</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X31" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y31">
+        <v>23.728813559322035</v>
+      </c>
+      <c r="Z31">
+        <v>18.64406779661017</v>
+      </c>
+      <c r="AA31">
+        <v>18.64406779661017</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>11.864406779661017</v>
+      </c>
+      <c r="AD31">
+        <v>5.0847457627118651</v>
+      </c>
+      <c r="AE31">
+        <v>6.7796610169491522</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>5.0847457627118651</v>
+      </c>
+      <c r="AI31">
+        <v>5.0847457627118651</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>3.3898305084745761</v>
+      </c>
+      <c r="AL31">
+        <v>1.6949152542372881</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>9</v>
       </c>
@@ -3279,8 +4674,53 @@
       <c r="V32">
         <v>0.30303030303030304</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y32">
+        <v>17.171717171717169</v>
+      </c>
+      <c r="Z32">
+        <v>10.1010101010101</v>
+      </c>
+      <c r="AA32">
+        <v>14.14141414141414</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>12.121212121212121</v>
+      </c>
+      <c r="AD32">
+        <v>2.0202020202020203</v>
+      </c>
+      <c r="AE32">
+        <v>30.303030303030305</v>
+      </c>
+      <c r="AF32">
+        <v>2.0202020202020203</v>
+      </c>
+      <c r="AG32">
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="AH32">
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="AI32">
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="AJ32">
+        <v>1.0101010101010102</v>
+      </c>
+      <c r="AK32">
+        <v>2.0202020202020203</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2</v>
       </c>
@@ -3347,8 +4787,53 @@
       <c r="V33">
         <v>0.25352112676056338</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y33">
+        <v>19.718309859154928</v>
+      </c>
+      <c r="Z33">
+        <v>15.492957746478872</v>
+      </c>
+      <c r="AA33">
+        <v>25.352112676056336</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>12.676056338028168</v>
+      </c>
+      <c r="AD33">
+        <v>2.8169014084507045</v>
+      </c>
+      <c r="AE33">
+        <v>8.4507042253521121</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>2.8169014084507045</v>
+      </c>
+      <c r="AH33">
+        <v>4.225352112676056</v>
+      </c>
+      <c r="AI33">
+        <v>5.6338028169014089</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>2.8169014084507045</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0</v>
       </c>
@@ -3415,8 +4900,53 @@
       <c r="V34">
         <v>0.18181818181818182</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X34" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y34">
+        <v>4.5454545454545459</v>
+      </c>
+      <c r="Z34">
+        <v>18.181818181818183</v>
+      </c>
+      <c r="AA34">
+        <v>18.181818181818183</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>18.181818181818183</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>13.636363636363635</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>13.636363636363635</v>
+      </c>
+      <c r="AI34">
+        <v>4.5454545454545459</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.35">
       <c r="D35" t="s">
         <v>2</v>
       </c>
@@ -3460,7 +4990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
         <v>87</v>
       </c>
@@ -3510,7 +5040,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
         <v>88</v>
       </c>
@@ -3560,7 +5090,7 @@
         <v>54.060606060606062</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C38" t="s">
         <v>85</v>
       </c>
@@ -3607,7 +5137,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.35">
       <c r="F39">
         <v>6</v>
       </c>
@@ -3630,7 +5160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.35">
       <c r="D40">
         <v>5.3013363095229744</v>
       </c>
@@ -3674,7 +5204,7 @@
         <v>20.937451944766199</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.35">
       <c r="D41" t="s">
         <v>83</v>
       </c>
@@ -3718,7 +5248,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.35">
       <c r="D42" t="s">
         <v>61</v>
       </c>
@@ -3762,7 +5292,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.35">
       <c r="D43" t="s">
         <v>55</v>
       </c>
@@ -3806,7 +5336,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.35">
       <c r="D44" t="s">
         <v>73</v>
       </c>
@@ -3850,7 +5380,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.35">
       <c r="D45" t="s">
         <v>29</v>
       </c>
@@ -3894,7 +5424,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.35">
       <c r="E47" t="s">
         <v>89</v>
       </c>
@@ -3905,7 +5435,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.35">
       <c r="D48" t="s">
         <v>2</v>
       </c>
@@ -3919,7 +5449,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D49" t="s">
         <v>3</v>
       </c>
@@ -3933,7 +5463,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D50" t="s">
         <v>4</v>
       </c>
@@ -3947,7 +5477,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D51" t="s">
         <v>5</v>
       </c>
@@ -3961,7 +5491,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D52" t="s">
         <v>6</v>
       </c>
@@ -3975,7 +5505,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D53" t="s">
         <v>7</v>
       </c>
@@ -3989,7 +5519,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D54" t="s">
         <v>8</v>
       </c>
@@ -4003,7 +5533,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D55" t="s">
         <v>9</v>
       </c>
@@ -4017,7 +5547,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D56" t="s">
         <v>10</v>
       </c>
@@ -4031,7 +5561,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D57" t="s">
         <v>11</v>
       </c>
@@ -4045,7 +5575,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D58" t="s">
         <v>12</v>
       </c>
@@ -4059,7 +5589,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D59" t="s">
         <v>13</v>
       </c>
@@ -4073,7 +5603,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D60" t="s">
         <v>14</v>
       </c>
@@ -4087,7 +5617,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="61" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D61" t="s">
         <v>15</v>
       </c>
